--- a/MSc_Thesis_Thomas_Elizabeth_Database.xlsx
+++ b/MSc_Thesis_Thomas_Elizabeth_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizziethomas/Library/Mobile Documents/com~apple~CloudDocs/UNIVERSITY - Imperial/MSc Thesis /Salmon and Trout/Excel Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFE4C9E-48AA-F74B-84A4-BC5281AD1BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF975D-134A-BE4C-B069-E421416B50A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="4" xr2:uid="{0C2B2C8E-FB53-C440-A54A-BA74AAAF564C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="373">
   <si>
     <t>Finland</t>
   </si>
@@ -1175,18 +1175,6 @@
   </si>
   <si>
     <t>stage</t>
-  </si>
-  <si>
-    <t>discharge</t>
-  </si>
-  <si>
-    <t>velocity</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>gradient</t>
   </si>
   <si>
     <t>catchment</t>
@@ -1531,6 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1557,9 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1903,7 +1891,7 @@
     </row>
     <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1919,7 +1907,7 @@
     </row>
     <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1942,7 +1930,7 @@
     </row>
     <row r="19" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85697849-17AB-C148-BCCA-09C64E598932}">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W28" sqref="W28"/>
     </sheetView>
@@ -6270,7 +6258,7 @@
       <c r="Z1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="39" t="s">
         <v>274</v>
       </c>
       <c r="AB1" s="11" t="s">
@@ -6329,7 +6317,7 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -6422,7 +6410,7 @@
       <c r="AS2" s="17"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="15" t="s">
         <v>293</v>
       </c>
@@ -6515,7 +6503,7 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -6598,7 +6586,7 @@
       <c r="AS4" s="28"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="15" t="s">
         <v>296</v>
       </c>
@@ -6701,7 +6689,7 @@
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>297</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -6808,7 +6796,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="15" t="s">
         <v>299</v>
       </c>
@@ -6887,7 +6875,7 @@
       <c r="AS7" s="20"/>
     </row>
     <row r="8" spans="1:45" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>300</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -6996,7 +6984,7 @@
       <c r="AS8" s="28"/>
     </row>
     <row r="9" spans="1:45" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="13" t="s">
         <v>302</v>
       </c>
@@ -7045,7 +7033,7 @@
       <c r="AS9" s="20"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="25" t="s">
         <v>303</v>
       </c>
@@ -7122,10 +7110,10 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="17">
         <v>2</v>
       </c>
@@ -7257,10 +7245,10 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="34" t="s">
         <v>190</v>
       </c>
@@ -7406,11 +7394,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E41852-1FB5-074E-BFCA-5550F807FD42}">
-  <dimension ref="A1:AE104"/>
+  <dimension ref="A1:AA104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7424,13 +7412,12 @@
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="20" width="12.5" customWidth="1"/>
-    <col min="21" max="22" width="12.1640625" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" customWidth="1"/>
+    <col min="17" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -7489,43 +7476,31 @@
         <v>142</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7580,32 +7555,32 @@
       <c r="S2">
         <v>2</v>
       </c>
-      <c r="X2" t="s">
+      <c r="T2" t="s">
         <v>150</v>
       </c>
-      <c r="Y2">
+      <c r="U2">
         <v>5</v>
       </c>
+      <c r="V2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>152</v>
+      </c>
       <c r="Z2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <v>7.5</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7660,32 +7635,32 @@
       <c r="S3">
         <v>2</v>
       </c>
-      <c r="X3" t="s">
+      <c r="T3" t="s">
         <v>150</v>
       </c>
-      <c r="Y3">
+      <c r="U3">
         <v>5</v>
       </c>
+      <c r="V3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>152</v>
+      </c>
       <c r="Z3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>10</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7740,32 +7715,32 @@
       <c r="S4">
         <v>2</v>
       </c>
-      <c r="X4" t="s">
+      <c r="T4" t="s">
         <v>150</v>
       </c>
-      <c r="Y4">
+      <c r="U4">
         <v>5</v>
       </c>
+      <c r="V4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>152</v>
+      </c>
       <c r="Z4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>9</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7817,35 +7792,29 @@
       <c r="S5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U5">
-        <v>0.4</v>
-      </c>
-      <c r="W5">
-        <v>19</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="T5" t="s">
         <v>150</v>
       </c>
+      <c r="V5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>156</v>
+      </c>
       <c r="Z5" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7897,35 +7866,29 @@
       <c r="S6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U6">
-        <v>0.4</v>
-      </c>
-      <c r="W6">
-        <v>19</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="T6" t="s">
         <v>150</v>
       </c>
+      <c r="V6" t="s">
+        <v>151</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>156</v>
+      </c>
       <c r="Z6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB6">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7977,35 +7940,29 @@
       <c r="S7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U7">
-        <v>0.4</v>
-      </c>
-      <c r="W7">
-        <v>19</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="T7" t="s">
         <v>150</v>
       </c>
+      <c r="V7" t="s">
+        <v>151</v>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z7" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB7">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8069,35 +8026,26 @@
       <c r="U8" t="s">
         <v>158</v>
       </c>
-      <c r="V8">
-        <v>6.3</v>
-      </c>
-      <c r="X8" t="s">
-        <v>158</v>
+      <c r="V8" t="s">
+        <v>159</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>12</v>
       </c>
       <c r="Y8" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB8">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -8161,35 +8109,26 @@
       <c r="U9" t="s">
         <v>158</v>
       </c>
-      <c r="V9">
-        <v>6.3</v>
-      </c>
-      <c r="X9" t="s">
-        <v>158</v>
+      <c r="V9" t="s">
+        <v>159</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>12</v>
       </c>
       <c r="Y9" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8215,7 +8154,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J10" t="s">
         <v>125</v>
@@ -8253,35 +8192,26 @@
       <c r="U10" t="s">
         <v>158</v>
       </c>
-      <c r="V10">
-        <v>6.3</v>
-      </c>
-      <c r="X10" t="s">
-        <v>158</v>
+      <c r="V10" t="s">
+        <v>159</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>12</v>
       </c>
       <c r="Y10" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8307,7 +8237,7 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J11" t="s">
         <v>125</v>
@@ -8345,35 +8275,26 @@
       <c r="U11" t="s">
         <v>158</v>
       </c>
-      <c r="V11">
-        <v>6.3</v>
-      </c>
-      <c r="X11" t="s">
-        <v>158</v>
+      <c r="V11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
       </c>
       <c r="Y11" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB11">
-        <v>12</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8428,35 +8349,29 @@
       <c r="S12">
         <v>16</v>
       </c>
-      <c r="T12">
-        <v>15</v>
-      </c>
-      <c r="U12">
-        <v>30.3</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="T12" t="s">
         <v>150</v>
       </c>
+      <c r="V12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>152</v>
+      </c>
       <c r="Z12" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="AA12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB12">
-        <v>5</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8514,29 +8429,29 @@
       <c r="S13">
         <v>4</v>
       </c>
-      <c r="X13" t="s">
+      <c r="T13" t="s">
         <v>150</v>
       </c>
+      <c r="V13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>161</v>
+      </c>
       <c r="Z13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -8562,7 +8477,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J14" t="s">
         <v>125</v>
@@ -8594,29 +8509,29 @@
       <c r="S14">
         <v>4</v>
       </c>
-      <c r="X14" t="s">
+      <c r="T14" t="s">
         <v>150</v>
       </c>
+      <c r="V14" t="s">
+        <v>159</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
       <c r="Z14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8674,41 +8589,32 @@
       <c r="S15">
         <v>7</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>12</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="T15" t="s">
         <v>162</v>
       </c>
-      <c r="Y15">
+      <c r="U15">
         <v>35</v>
       </c>
+      <c r="V15" t="s">
+        <v>151</v>
+      </c>
+      <c r="W15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
       <c r="Z15" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="AA15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8734,7 +8640,7 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J16" t="s">
         <v>125</v>
@@ -8766,41 +8672,32 @@
       <c r="S16">
         <v>7</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>7</v>
-      </c>
-      <c r="W16">
-        <v>12</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="T16" t="s">
         <v>162</v>
       </c>
-      <c r="Y16">
+      <c r="U16">
         <v>35</v>
       </c>
+      <c r="V16" t="s">
+        <v>151</v>
+      </c>
+      <c r="W16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
       <c r="Z16" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="AA16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -8858,35 +8755,29 @@
       <c r="S17">
         <v>20</v>
       </c>
-      <c r="T17">
-        <v>44</v>
-      </c>
-      <c r="V17">
+      <c r="T17" t="s">
+        <v>150</v>
+      </c>
+      <c r="V17" t="s">
+        <v>159</v>
+      </c>
+      <c r="W17" t="s">
         <v>6</v>
       </c>
-      <c r="X17" t="s">
-        <v>150</v>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
       </c>
       <c r="Z17" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AA17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17">
-        <v>3</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -8941,32 +8832,32 @@
       <c r="S18">
         <v>4.75</v>
       </c>
-      <c r="X18" t="s">
+      <c r="T18" t="s">
         <v>162</v>
       </c>
-      <c r="Y18">
+      <c r="U18">
         <v>70</v>
       </c>
+      <c r="V18" t="s">
+        <v>151</v>
+      </c>
+      <c r="W18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
       <c r="Z18" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AA18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18">
-        <v>5</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -8992,7 +8883,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -9021,32 +8912,32 @@
       <c r="S19">
         <v>4.75</v>
       </c>
-      <c r="X19" t="s">
+      <c r="T19" t="s">
         <v>162</v>
       </c>
-      <c r="Y19">
+      <c r="U19">
         <v>70</v>
       </c>
+      <c r="V19" t="s">
+        <v>151</v>
+      </c>
+      <c r="W19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
       <c r="Z19" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AA19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB19">
-        <v>5</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -9101,32 +8992,32 @@
       <c r="S20">
         <v>4.75</v>
       </c>
-      <c r="X20" t="s">
+      <c r="T20" t="s">
         <v>162</v>
       </c>
-      <c r="Y20">
+      <c r="U20">
         <v>70</v>
       </c>
+      <c r="V20" t="s">
+        <v>151</v>
+      </c>
+      <c r="W20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
       <c r="Z20" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AA20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB20">
-        <v>5</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -9152,7 +9043,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
         <v>116</v>
@@ -9181,32 +9072,32 @@
       <c r="S21">
         <v>4.75</v>
       </c>
-      <c r="X21" t="s">
+      <c r="T21" t="s">
         <v>162</v>
       </c>
-      <c r="Y21">
+      <c r="U21">
         <v>70</v>
       </c>
+      <c r="V21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W21" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>163</v>
+      </c>
       <c r="Z21" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AA21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB21">
-        <v>5</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -9271,37 +9162,25 @@
         <v>158</v>
       </c>
       <c r="V22" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="W22" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="X22" t="s">
         <v>158</v>
       </c>
       <c r="Y22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z22" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9</v>
       </c>
@@ -9366,37 +9245,25 @@
         <v>158</v>
       </c>
       <c r="V23" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="W23" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="X23" t="s">
         <v>158</v>
       </c>
       <c r="Y23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z23" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -9448,35 +9315,29 @@
       <c r="S24">
         <v>9</v>
       </c>
-      <c r="V24">
-        <v>7.9</v>
-      </c>
-      <c r="W24">
-        <v>3</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="T24" t="s">
         <v>162</v>
       </c>
+      <c r="V24" t="s">
+        <v>117</v>
+      </c>
+      <c r="W24" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>156</v>
+      </c>
       <c r="Z24" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10</v>
       </c>
@@ -9528,35 +9389,29 @@
       <c r="S25">
         <v>10</v>
       </c>
-      <c r="V25">
-        <v>7.9</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="T25" t="s">
         <v>162</v>
       </c>
+      <c r="V25" t="s">
+        <v>117</v>
+      </c>
+      <c r="W25" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>156</v>
+      </c>
       <c r="Z25" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
@@ -9614,32 +9469,32 @@
       <c r="S26">
         <v>7</v>
       </c>
-      <c r="X26" t="s">
+      <c r="T26" t="s">
         <v>162</v>
       </c>
-      <c r="Y26">
+      <c r="U26">
         <v>200</v>
       </c>
+      <c r="V26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>156</v>
+      </c>
       <c r="Z26" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB26">
-        <v>4</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
@@ -9697,32 +9552,32 @@
       <c r="S27">
         <v>7</v>
       </c>
-      <c r="X27" t="s">
+      <c r="T27" t="s">
         <v>162</v>
       </c>
-      <c r="Y27">
+      <c r="U27">
         <v>200</v>
       </c>
+      <c r="V27" t="s">
+        <v>151</v>
+      </c>
+      <c r="W27" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>156</v>
+      </c>
       <c r="Z27" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AA27" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB27">
-        <v>4</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>11</v>
       </c>
@@ -9748,7 +9603,7 @@
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J28" t="s">
         <v>125</v>
@@ -9780,32 +9635,32 @@
       <c r="S28">
         <v>7</v>
       </c>
-      <c r="X28" t="s">
+      <c r="T28" t="s">
         <v>162</v>
       </c>
-      <c r="Y28">
+      <c r="U28">
         <v>200</v>
       </c>
+      <c r="V28" t="s">
+        <v>151</v>
+      </c>
+      <c r="W28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>156</v>
+      </c>
       <c r="Z28" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB28">
-        <v>4</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>11</v>
       </c>
@@ -9831,7 +9686,7 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J29" t="s">
         <v>125</v>
@@ -9863,32 +9718,32 @@
       <c r="S29">
         <v>7</v>
       </c>
-      <c r="X29" t="s">
+      <c r="T29" t="s">
         <v>162</v>
       </c>
-      <c r="Y29">
+      <c r="U29">
         <v>200</v>
       </c>
+      <c r="V29" t="s">
+        <v>151</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>156</v>
+      </c>
       <c r="Z29" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AA29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB29">
-        <v>4</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -9946,32 +9801,32 @@
       <c r="S30">
         <v>7</v>
       </c>
-      <c r="X30" t="s">
+      <c r="T30" t="s">
         <v>162</v>
       </c>
-      <c r="Y30">
+      <c r="U30">
         <v>200</v>
       </c>
+      <c r="V30" t="s">
+        <v>151</v>
+      </c>
+      <c r="W30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>156</v>
+      </c>
       <c r="Z30" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB30">
-        <v>4</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>11</v>
       </c>
@@ -10029,32 +9884,32 @@
       <c r="S31">
         <v>7</v>
       </c>
-      <c r="X31" t="s">
+      <c r="T31" t="s">
         <v>162</v>
       </c>
-      <c r="Y31">
+      <c r="U31">
         <v>200</v>
       </c>
+      <c r="V31" t="s">
+        <v>151</v>
+      </c>
+      <c r="W31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>156</v>
+      </c>
       <c r="Z31" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AA31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB31">
-        <v>4</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>11</v>
       </c>
@@ -10080,7 +9935,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J32" t="s">
         <v>125</v>
@@ -10112,32 +9967,32 @@
       <c r="S32">
         <v>7</v>
       </c>
-      <c r="X32" t="s">
+      <c r="T32" t="s">
         <v>162</v>
       </c>
-      <c r="Y32">
+      <c r="U32">
         <v>200</v>
       </c>
+      <c r="V32" t="s">
+        <v>151</v>
+      </c>
+      <c r="W32" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>156</v>
+      </c>
       <c r="Z32" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB32">
-        <v>4</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>11</v>
       </c>
@@ -10163,7 +10018,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J33" t="s">
         <v>125</v>
@@ -10195,32 +10050,32 @@
       <c r="S33">
         <v>7</v>
       </c>
-      <c r="X33" t="s">
+      <c r="T33" t="s">
         <v>162</v>
       </c>
-      <c r="Y33">
+      <c r="U33">
         <v>200</v>
       </c>
+      <c r="V33" t="s">
+        <v>151</v>
+      </c>
+      <c r="W33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>156</v>
+      </c>
       <c r="Z33" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AA33" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB33">
-        <v>4</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>11</v>
       </c>
@@ -10246,7 +10101,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
@@ -10278,32 +10133,32 @@
       <c r="S34">
         <v>7</v>
       </c>
-      <c r="X34" t="s">
+      <c r="T34" t="s">
         <v>162</v>
       </c>
-      <c r="Y34">
+      <c r="U34">
         <v>200</v>
       </c>
+      <c r="V34" t="s">
+        <v>151</v>
+      </c>
+      <c r="W34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>156</v>
+      </c>
       <c r="Z34" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB34">
-        <v>4</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>11</v>
       </c>
@@ -10329,7 +10184,7 @@
         <v>28</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
@@ -10361,32 +10216,32 @@
       <c r="S35">
         <v>7</v>
       </c>
-      <c r="X35" t="s">
+      <c r="T35" t="s">
         <v>162</v>
       </c>
-      <c r="Y35">
+      <c r="U35">
         <v>200</v>
       </c>
+      <c r="V35" t="s">
+        <v>151</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>156</v>
+      </c>
       <c r="Z35" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AA35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB35">
-        <v>4</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>12</v>
       </c>
@@ -10441,35 +10296,32 @@
       <c r="S36">
         <v>8.84</v>
       </c>
-      <c r="T36">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="T36" t="s">
         <v>162</v>
       </c>
-      <c r="Y36">
+      <c r="U36">
         <v>100</v>
       </c>
+      <c r="V36" t="s">
+        <v>117</v>
+      </c>
+      <c r="W36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>156</v>
+      </c>
       <c r="Z36" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>12</v>
       </c>
@@ -10524,35 +10376,32 @@
       <c r="S37">
         <v>8.84</v>
       </c>
-      <c r="T37">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="T37" t="s">
         <v>162</v>
       </c>
-      <c r="Y37">
+      <c r="U37">
         <v>101</v>
       </c>
+      <c r="V37" t="s">
+        <v>117</v>
+      </c>
+      <c r="W37" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>156</v>
+      </c>
       <c r="Z37" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>13</v>
       </c>
@@ -10610,29 +10459,29 @@
       <c r="S38">
         <v>5</v>
       </c>
+      <c r="T38" t="s">
+        <v>162</v>
+      </c>
+      <c r="V38" t="s">
+        <v>117</v>
+      </c>
+      <c r="W38" t="s">
+        <v>19</v>
+      </c>
       <c r="X38" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>166</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>13</v>
       </c>
@@ -10658,7 +10507,7 @@
         <v>28</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
         <v>125</v>
@@ -10690,29 +10539,29 @@
       <c r="S39">
         <v>5</v>
       </c>
+      <c r="T39" t="s">
+        <v>162</v>
+      </c>
+      <c r="V39" t="s">
+        <v>117</v>
+      </c>
+      <c r="W39" t="s">
+        <v>19</v>
+      </c>
       <c r="X39" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>166</v>
       </c>
       <c r="Z39" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>13</v>
       </c>
@@ -10767,29 +10616,29 @@
       <c r="S40">
         <v>8.1</v>
       </c>
+      <c r="T40" t="s">
+        <v>162</v>
+      </c>
+      <c r="V40" t="s">
+        <v>117</v>
+      </c>
+      <c r="W40" t="s">
+        <v>19</v>
+      </c>
       <c r="X40" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>166</v>
       </c>
       <c r="Z40" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA40" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>13</v>
       </c>
@@ -10844,29 +10693,29 @@
       <c r="S41">
         <v>8.1</v>
       </c>
+      <c r="T41" t="s">
+        <v>162</v>
+      </c>
+      <c r="V41" t="s">
+        <v>117</v>
+      </c>
+      <c r="W41" t="s">
+        <v>19</v>
+      </c>
       <c r="X41" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>166</v>
       </c>
       <c r="Z41" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>14</v>
       </c>
@@ -10892,7 +10741,7 @@
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
         <v>116</v>
@@ -10924,32 +10773,32 @@
       <c r="S42">
         <v>20</v>
       </c>
-      <c r="X42" t="s">
+      <c r="T42" t="s">
         <v>150</v>
       </c>
+      <c r="U42" t="s">
+        <v>158</v>
+      </c>
+      <c r="V42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
       <c r="Y42" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Z42" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA42" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB42">
-        <v>4</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>14</v>
       </c>
@@ -10975,7 +10824,7 @@
         <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
         <v>116</v>
@@ -11007,32 +10856,32 @@
       <c r="S43">
         <v>20</v>
       </c>
-      <c r="X43" t="s">
+      <c r="T43" t="s">
         <v>150</v>
       </c>
+      <c r="U43" t="s">
+        <v>158</v>
+      </c>
+      <c r="V43" t="s">
+        <v>117</v>
+      </c>
+      <c r="W43" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
       <c r="Y43" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Z43" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB43">
-        <v>4</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>15</v>
       </c>
@@ -11091,43 +10940,31 @@
         <v>158</v>
       </c>
       <c r="T44" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="U44" t="s">
         <v>158</v>
       </c>
       <c r="V44" t="s">
+        <v>117</v>
+      </c>
+      <c r="W44" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" t="s">
         <v>158</v>
       </c>
-      <c r="W44" t="s">
-        <v>158</v>
-      </c>
-      <c r="X44" t="s">
-        <v>162</v>
-      </c>
       <c r="Y44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z44" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>15</v>
       </c>
@@ -11153,7 +10990,7 @@
         <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
         <v>116</v>
@@ -11186,43 +11023,31 @@
         <v>158</v>
       </c>
       <c r="T45" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="U45" t="s">
         <v>158</v>
       </c>
       <c r="V45" t="s">
+        <v>117</v>
+      </c>
+      <c r="W45" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" t="s">
         <v>158</v>
       </c>
-      <c r="W45" t="s">
-        <v>158</v>
-      </c>
-      <c r="X45" t="s">
-        <v>162</v>
-      </c>
       <c r="Y45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z45" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>15</v>
       </c>
@@ -11281,43 +11106,31 @@
         <v>158</v>
       </c>
       <c r="T46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="U46" t="s">
         <v>158</v>
       </c>
       <c r="V46" t="s">
+        <v>117</v>
+      </c>
+      <c r="W46" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" t="s">
         <v>158</v>
       </c>
-      <c r="W46" t="s">
-        <v>158</v>
-      </c>
-      <c r="X46" t="s">
-        <v>162</v>
-      </c>
       <c r="Y46" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z46" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA46" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>15</v>
       </c>
@@ -11343,7 +11156,7 @@
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J47" t="s">
         <v>116</v>
@@ -11376,43 +11189,31 @@
         <v>158</v>
       </c>
       <c r="T47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="U47" t="s">
         <v>158</v>
       </c>
       <c r="V47" t="s">
+        <v>117</v>
+      </c>
+      <c r="W47" t="s">
+        <v>2</v>
+      </c>
+      <c r="X47" t="s">
         <v>158</v>
       </c>
-      <c r="W47" t="s">
-        <v>158</v>
-      </c>
-      <c r="X47" t="s">
-        <v>162</v>
-      </c>
       <c r="Y47" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z47" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA47" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>16</v>
       </c>
@@ -11467,38 +11268,32 @@
       <c r="S48">
         <v>25</v>
       </c>
-      <c r="T48">
-        <v>9</v>
-      </c>
-      <c r="V48">
-        <v>6.2</v>
-      </c>
-      <c r="X48" t="s">
+      <c r="T48" t="s">
         <v>162</v>
       </c>
-      <c r="Y48">
+      <c r="U48">
         <v>119</v>
       </c>
+      <c r="V48" t="s">
+        <v>159</v>
+      </c>
+      <c r="W48" t="s">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>13</v>
+      </c>
       <c r="Z48" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB48">
-        <v>8</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>16</v>
       </c>
@@ -11524,7 +11319,7 @@
         <v>25</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J49" t="s">
         <v>125</v>
@@ -11553,38 +11348,32 @@
       <c r="S49">
         <v>25</v>
       </c>
-      <c r="T49">
-        <v>9</v>
-      </c>
-      <c r="V49">
-        <v>6.2</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="T49" t="s">
         <v>162</v>
       </c>
-      <c r="Y49">
+      <c r="U49">
         <v>119</v>
       </c>
+      <c r="V49" t="s">
+        <v>159</v>
+      </c>
+      <c r="W49" t="s">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>13</v>
+      </c>
       <c r="Z49" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB49">
-        <v>8</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>16</v>
       </c>
@@ -11639,38 +11428,32 @@
       <c r="S50">
         <v>25</v>
       </c>
-      <c r="T50">
-        <v>9</v>
-      </c>
-      <c r="V50">
-        <v>6.2</v>
-      </c>
-      <c r="X50" t="s">
+      <c r="T50" t="s">
         <v>162</v>
       </c>
-      <c r="Y50">
+      <c r="U50">
         <v>119</v>
       </c>
+      <c r="V50" t="s">
+        <v>159</v>
+      </c>
+      <c r="W50" t="s">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>13</v>
+      </c>
       <c r="Z50" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA50" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB50">
-        <v>8</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>16</v>
       </c>
@@ -11696,7 +11479,7 @@
         <v>28</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J51" t="s">
         <v>125</v>
@@ -11725,38 +11508,32 @@
       <c r="S51">
         <v>25</v>
       </c>
-      <c r="T51">
-        <v>9</v>
-      </c>
-      <c r="V51">
-        <v>6.2</v>
-      </c>
-      <c r="X51" t="s">
+      <c r="T51" t="s">
         <v>162</v>
       </c>
-      <c r="Y51">
+      <c r="U51">
         <v>119</v>
       </c>
+      <c r="V51" t="s">
+        <v>159</v>
+      </c>
+      <c r="W51" t="s">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>13</v>
+      </c>
       <c r="Z51" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="AA51" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB51">
-        <v>8</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>17</v>
       </c>
@@ -11811,32 +11588,32 @@
       <c r="S52">
         <v>2</v>
       </c>
+      <c r="T52" t="s">
+        <v>162</v>
+      </c>
+      <c r="U52">
+        <v>11</v>
+      </c>
+      <c r="V52" t="s">
+        <v>151</v>
+      </c>
+      <c r="W52" t="s">
+        <v>6</v>
+      </c>
       <c r="X52" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y52">
-        <v>11</v>
+        <v>158</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>152</v>
       </c>
       <c r="Z52" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="AA52" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>18</v>
       </c>
@@ -11891,32 +11668,32 @@
       <c r="S53">
         <v>6.5</v>
       </c>
+      <c r="T53" t="s">
+        <v>150</v>
+      </c>
+      <c r="U53">
+        <v>20</v>
+      </c>
+      <c r="V53" t="s">
+        <v>151</v>
+      </c>
+      <c r="W53" t="s">
+        <v>6</v>
+      </c>
       <c r="X53" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y53">
-        <v>20</v>
+        <v>158</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>156</v>
       </c>
       <c r="Z53" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="AA53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>19</v>
       </c>
@@ -11971,32 +11748,32 @@
       <c r="S54">
         <v>7</v>
       </c>
+      <c r="T54" t="s">
+        <v>162</v>
+      </c>
+      <c r="U54">
+        <v>15</v>
+      </c>
+      <c r="V54" t="s">
+        <v>151</v>
+      </c>
+      <c r="W54" t="s">
+        <v>6</v>
+      </c>
       <c r="X54" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y54">
-        <v>15</v>
+        <v>158</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>152</v>
       </c>
       <c r="Z54" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="AA54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>20</v>
       </c>
@@ -12051,32 +11828,32 @@
       <c r="S55">
         <v>8</v>
       </c>
+      <c r="T55" t="s">
+        <v>150</v>
+      </c>
+      <c r="U55">
+        <v>11</v>
+      </c>
+      <c r="V55" t="s">
+        <v>151</v>
+      </c>
+      <c r="W55" t="s">
+        <v>6</v>
+      </c>
       <c r="X55" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y55">
-        <v>11</v>
+        <v>158</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>152</v>
       </c>
       <c r="Z55" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="AA55" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>21</v>
       </c>
@@ -12131,29 +11908,29 @@
       <c r="S56">
         <v>4.5</v>
       </c>
+      <c r="T56" t="s">
+        <v>162</v>
+      </c>
+      <c r="V56" t="s">
+        <v>151</v>
+      </c>
+      <c r="W56" t="s">
+        <v>6</v>
+      </c>
       <c r="X56" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>156</v>
       </c>
       <c r="Z56" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="AA56" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>22</v>
       </c>
@@ -12211,32 +11988,32 @@
       <c r="S57" t="s">
         <v>158</v>
       </c>
-      <c r="X57" t="s">
+      <c r="T57" t="s">
         <v>150</v>
       </c>
-      <c r="Y57">
+      <c r="U57">
         <v>236</v>
       </c>
+      <c r="V57" t="s">
+        <v>159</v>
+      </c>
+      <c r="W57" t="s">
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>156</v>
+      </c>
       <c r="Z57" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AA57" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB57">
-        <v>5</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>22</v>
       </c>
@@ -12262,7 +12039,7 @@
         <v>28</v>
       </c>
       <c r="I58" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J58" t="s">
         <v>116</v>
@@ -12294,41 +12071,32 @@
       <c r="S58" t="s">
         <v>158</v>
       </c>
+      <c r="T58" t="s">
+        <v>150</v>
+      </c>
       <c r="U58">
-        <v>0.35</v>
-      </c>
-      <c r="V58">
-        <v>7.2</v>
-      </c>
-      <c r="W58">
-        <v>30</v>
-      </c>
-      <c r="X58" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y58">
         <v>236</v>
       </c>
+      <c r="V58" t="s">
+        <v>159</v>
+      </c>
+      <c r="W58" t="s">
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>156</v>
+      </c>
       <c r="Z58" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AA58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB58">
-        <v>5</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>23</v>
       </c>
@@ -12380,41 +12148,32 @@
       <c r="S59">
         <v>4.7</v>
       </c>
+      <c r="T59" t="s">
+        <v>150</v>
+      </c>
       <c r="U59">
-        <v>0.35</v>
-      </c>
-      <c r="V59">
-        <v>7.2</v>
-      </c>
-      <c r="W59">
-        <v>30</v>
-      </c>
-      <c r="X59" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y59">
         <v>21.5</v>
       </c>
+      <c r="V59" t="s">
+        <v>117</v>
+      </c>
+      <c r="W59" t="s">
+        <v>6</v>
+      </c>
+      <c r="X59">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>156</v>
+      </c>
       <c r="Z59" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA59" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB59">
-        <v>2</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>23</v>
       </c>
@@ -12466,32 +12225,32 @@
       <c r="S60">
         <v>4.7</v>
       </c>
-      <c r="X60" t="s">
+      <c r="T60" t="s">
         <v>150</v>
       </c>
-      <c r="Y60">
+      <c r="U60">
         <v>21.5</v>
       </c>
+      <c r="V60" t="s">
+        <v>117</v>
+      </c>
+      <c r="W60" t="s">
+        <v>6</v>
+      </c>
+      <c r="X60">
+        <v>2</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>156</v>
+      </c>
       <c r="Z60" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA60" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB60">
-        <v>2</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>24</v>
       </c>
@@ -12549,41 +12308,32 @@
       <c r="S61">
         <v>4.25</v>
       </c>
-      <c r="T61">
-        <v>0.5</v>
-      </c>
-      <c r="U61">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W61">
-        <v>9.5</v>
-      </c>
-      <c r="X61" t="s">
+      <c r="T61" t="s">
         <v>150</v>
       </c>
+      <c r="U61" t="s">
+        <v>158</v>
+      </c>
+      <c r="V61" t="s">
+        <v>159</v>
+      </c>
+      <c r="W61" t="s">
+        <v>6</v>
+      </c>
+      <c r="X61">
+        <v>12</v>
+      </c>
       <c r="Y61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z61" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB61">
-        <v>12</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>24</v>
       </c>
@@ -12641,41 +12391,32 @@
       <c r="S62">
         <v>4.25</v>
       </c>
-      <c r="T62">
-        <v>0.5</v>
-      </c>
-      <c r="U62">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W62">
-        <v>9.5</v>
-      </c>
-      <c r="X62" t="s">
+      <c r="T62" t="s">
         <v>150</v>
       </c>
+      <c r="U62" t="s">
+        <v>158</v>
+      </c>
+      <c r="V62" t="s">
+        <v>159</v>
+      </c>
+      <c r="W62" t="s">
+        <v>6</v>
+      </c>
+      <c r="X62">
+        <v>12</v>
+      </c>
       <c r="Y62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z62" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AA62" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB62">
-        <v>12</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>24</v>
       </c>
@@ -12701,7 +12442,7 @@
         <v>28</v>
       </c>
       <c r="I63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J63" t="s">
         <v>125</v>
@@ -12733,41 +12474,32 @@
       <c r="S63">
         <v>4.25</v>
       </c>
-      <c r="T63">
-        <v>0.5</v>
-      </c>
-      <c r="U63">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W63">
-        <v>9.5</v>
-      </c>
-      <c r="X63" t="s">
+      <c r="T63" t="s">
         <v>150</v>
       </c>
+      <c r="U63" t="s">
+        <v>158</v>
+      </c>
+      <c r="V63" t="s">
+        <v>159</v>
+      </c>
+      <c r="W63" t="s">
+        <v>6</v>
+      </c>
+      <c r="X63">
+        <v>12</v>
+      </c>
       <c r="Y63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z63" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB63">
-        <v>12</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>24</v>
       </c>
@@ -12793,7 +12525,7 @@
         <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J64" t="s">
         <v>125</v>
@@ -12825,41 +12557,32 @@
       <c r="S64">
         <v>4.25</v>
       </c>
-      <c r="T64">
-        <v>0.5</v>
-      </c>
-      <c r="U64">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W64">
-        <v>9.5</v>
-      </c>
-      <c r="X64" t="s">
+      <c r="T64" t="s">
         <v>150</v>
       </c>
+      <c r="U64" t="s">
+        <v>158</v>
+      </c>
+      <c r="V64" t="s">
+        <v>159</v>
+      </c>
+      <c r="W64" t="s">
+        <v>6</v>
+      </c>
+      <c r="X64">
+        <v>12</v>
+      </c>
       <c r="Y64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z64" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AA64" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB64">
-        <v>12</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>24</v>
       </c>
@@ -12885,7 +12608,7 @@
         <v>28</v>
       </c>
       <c r="I65" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J65" t="s">
         <v>43</v>
@@ -12917,41 +12640,32 @@
       <c r="S65">
         <v>4.25</v>
       </c>
-      <c r="T65">
-        <v>0.5</v>
-      </c>
-      <c r="U65">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W65">
-        <v>9.5</v>
-      </c>
-      <c r="X65" t="s">
+      <c r="T65" t="s">
         <v>150</v>
       </c>
+      <c r="U65" t="s">
+        <v>158</v>
+      </c>
+      <c r="V65" t="s">
+        <v>159</v>
+      </c>
+      <c r="W65" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65">
+        <v>12</v>
+      </c>
       <c r="Y65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z65" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AA65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB65">
-        <v>12</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>24</v>
       </c>
@@ -12977,7 +12691,7 @@
         <v>28</v>
       </c>
       <c r="I66" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J66" t="s">
         <v>43</v>
@@ -13009,41 +12723,32 @@
       <c r="S66">
         <v>4.25</v>
       </c>
-      <c r="T66">
-        <v>0.5</v>
-      </c>
-      <c r="U66">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W66">
-        <v>9.5</v>
-      </c>
-      <c r="X66" t="s">
+      <c r="T66" t="s">
         <v>150</v>
       </c>
+      <c r="U66" t="s">
+        <v>158</v>
+      </c>
+      <c r="V66" t="s">
+        <v>159</v>
+      </c>
+      <c r="W66" t="s">
+        <v>6</v>
+      </c>
+      <c r="X66">
+        <v>12</v>
+      </c>
       <c r="Y66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z66" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="AA66" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB66">
-        <v>12</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>25</v>
       </c>
@@ -13095,35 +12800,29 @@
       <c r="R67">
         <v>13.5</v>
       </c>
-      <c r="T67">
-        <v>1.26</v>
-      </c>
-      <c r="U67">
-        <v>13.65</v>
-      </c>
-      <c r="X67" t="s">
+      <c r="T67" t="s">
         <v>150</v>
       </c>
+      <c r="V67" t="s">
+        <v>117</v>
+      </c>
+      <c r="W67" t="s">
+        <v>6</v>
+      </c>
+      <c r="X67">
+        <v>2</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>156</v>
+      </c>
       <c r="Z67" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA67" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB67">
-        <v>2</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>26</v>
       </c>
@@ -13172,38 +12871,32 @@
       <c r="R68">
         <v>34</v>
       </c>
-      <c r="T68">
-        <v>0.26</v>
-      </c>
-      <c r="V68">
-        <v>7.7</v>
-      </c>
-      <c r="X68" t="s">
+      <c r="T68" t="s">
         <v>150</v>
       </c>
-      <c r="Y68">
+      <c r="U68">
         <v>115</v>
       </c>
+      <c r="V68" t="s">
+        <v>151</v>
+      </c>
+      <c r="W68" t="s">
+        <v>6</v>
+      </c>
+      <c r="X68">
+        <v>4</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>163</v>
+      </c>
       <c r="Z68" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AA68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB68">
-        <v>4</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>27</v>
       </c>
@@ -13261,35 +12954,29 @@
       <c r="S69">
         <v>6</v>
       </c>
-      <c r="T69">
-        <v>0.4</v>
-      </c>
-      <c r="W69">
-        <v>23</v>
-      </c>
-      <c r="X69" t="s">
+      <c r="T69" t="s">
         <v>150</v>
       </c>
+      <c r="V69" t="s">
+        <v>151</v>
+      </c>
+      <c r="W69" t="s">
+        <v>2</v>
+      </c>
+      <c r="X69">
+        <v>11</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>166</v>
+      </c>
       <c r="Z69" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA69" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB69">
-        <v>11</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>27</v>
       </c>
@@ -13347,35 +13034,29 @@
       <c r="S70">
         <v>6</v>
       </c>
-      <c r="T70">
-        <v>0.4</v>
-      </c>
-      <c r="W70">
-        <v>23</v>
-      </c>
-      <c r="X70" t="s">
+      <c r="T70" t="s">
         <v>150</v>
       </c>
+      <c r="V70" t="s">
+        <v>151</v>
+      </c>
+      <c r="W70" t="s">
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <v>11</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>166</v>
+      </c>
       <c r="Z70" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA70" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB70">
-        <v>11</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>27</v>
       </c>
@@ -13433,35 +13114,29 @@
       <c r="S71">
         <v>6</v>
       </c>
-      <c r="T71">
-        <v>0.4</v>
-      </c>
-      <c r="W71">
-        <v>23</v>
-      </c>
-      <c r="X71" t="s">
+      <c r="T71" t="s">
         <v>150</v>
       </c>
+      <c r="V71" t="s">
+        <v>151</v>
+      </c>
+      <c r="W71" t="s">
+        <v>2</v>
+      </c>
+      <c r="X71">
+        <v>11</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>166</v>
+      </c>
       <c r="Z71" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB71">
-        <v>11</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>27</v>
       </c>
@@ -13519,35 +13194,29 @@
       <c r="S72">
         <v>6</v>
       </c>
-      <c r="T72">
-        <v>0.4</v>
-      </c>
-      <c r="W72">
-        <v>23</v>
-      </c>
-      <c r="X72" t="s">
+      <c r="T72" t="s">
         <v>150</v>
       </c>
+      <c r="V72" t="s">
+        <v>151</v>
+      </c>
+      <c r="W72" t="s">
+        <v>2</v>
+      </c>
+      <c r="X72">
+        <v>11</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>166</v>
+      </c>
       <c r="Z72" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB72">
-        <v>11</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>27</v>
       </c>
@@ -13605,35 +13274,29 @@
       <c r="S73">
         <v>6</v>
       </c>
-      <c r="T73">
-        <v>0.4</v>
-      </c>
-      <c r="W73">
-        <v>23</v>
-      </c>
-      <c r="X73" t="s">
+      <c r="T73" t="s">
         <v>150</v>
       </c>
+      <c r="V73" t="s">
+        <v>151</v>
+      </c>
+      <c r="W73" t="s">
+        <v>2</v>
+      </c>
+      <c r="X73">
+        <v>11</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>156</v>
+      </c>
       <c r="Z73" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB73">
-        <v>11</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>28</v>
       </c>
@@ -13691,32 +13354,29 @@
       <c r="S74">
         <v>20</v>
       </c>
-      <c r="W74">
-        <v>3</v>
-      </c>
-      <c r="X74" t="s">
+      <c r="T74" t="s">
         <v>162</v>
       </c>
+      <c r="V74" t="s">
+        <v>117</v>
+      </c>
+      <c r="W74" t="s">
+        <v>2</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Z74" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA74" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB74">
-        <v>8</v>
-      </c>
-      <c r="AC74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>28</v>
       </c>
@@ -13742,7 +13402,7 @@
         <v>28</v>
       </c>
       <c r="I75" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J75" t="s">
         <v>116</v>
@@ -13774,32 +13434,29 @@
       <c r="S75">
         <v>20</v>
       </c>
-      <c r="W75">
-        <v>3</v>
-      </c>
-      <c r="X75" t="s">
+      <c r="T75" t="s">
         <v>162</v>
       </c>
+      <c r="V75" t="s">
+        <v>117</v>
+      </c>
+      <c r="W75" t="s">
+        <v>2</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Z75" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA75" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB75">
-        <v>8</v>
-      </c>
-      <c r="AC75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>28</v>
       </c>
@@ -13857,32 +13514,29 @@
       <c r="S76">
         <v>20</v>
       </c>
-      <c r="W76">
-        <v>3</v>
-      </c>
-      <c r="X76" t="s">
+      <c r="T76" t="s">
         <v>162</v>
       </c>
+      <c r="V76" t="s">
+        <v>117</v>
+      </c>
+      <c r="W76" t="s">
+        <v>2</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Z76" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA76" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB76">
-        <v>8</v>
-      </c>
-      <c r="AC76" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>28</v>
       </c>
@@ -13908,7 +13562,7 @@
         <v>28</v>
       </c>
       <c r="I77" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J77" t="s">
         <v>116</v>
@@ -13940,32 +13594,29 @@
       <c r="S77">
         <v>20</v>
       </c>
-      <c r="W77">
-        <v>3</v>
-      </c>
-      <c r="X77" t="s">
+      <c r="T77" t="s">
         <v>162</v>
       </c>
+      <c r="V77" t="s">
+        <v>117</v>
+      </c>
+      <c r="W77" t="s">
+        <v>2</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Z77" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="AA77" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB77">
-        <v>8</v>
-      </c>
-      <c r="AC77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>29</v>
       </c>
@@ -14023,41 +13674,32 @@
       <c r="S78">
         <v>6</v>
       </c>
-      <c r="T78">
-        <v>0.75</v>
+      <c r="T78" t="s">
+        <v>162</v>
       </c>
       <c r="U78">
-        <v>0.5</v>
-      </c>
-      <c r="W78">
-        <v>11</v>
-      </c>
-      <c r="X78" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y78">
         <v>113</v>
       </c>
+      <c r="V78" t="s">
+        <v>151</v>
+      </c>
+      <c r="W78" t="s">
+        <v>19</v>
+      </c>
+      <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>166</v>
+      </c>
       <c r="Z78" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA78" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB78">
-        <v>10</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>29</v>
       </c>
@@ -14115,41 +13757,32 @@
       <c r="S79">
         <v>6</v>
       </c>
-      <c r="T79">
-        <v>0.75</v>
+      <c r="T79" t="s">
+        <v>162</v>
       </c>
       <c r="U79">
-        <v>0.5</v>
-      </c>
-      <c r="W79">
-        <v>11</v>
-      </c>
-      <c r="X79" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y79">
         <v>113</v>
       </c>
+      <c r="V79" t="s">
+        <v>151</v>
+      </c>
+      <c r="W79" t="s">
+        <v>19</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>166</v>
+      </c>
       <c r="Z79" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA79" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB79">
-        <v>10</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>29</v>
       </c>
@@ -14207,41 +13840,32 @@
       <c r="S80">
         <v>1.5</v>
       </c>
-      <c r="T80">
-        <v>7.0000000000000007E-2</v>
+      <c r="T80" t="s">
+        <v>162</v>
       </c>
       <c r="U80">
-        <v>0.37</v>
-      </c>
-      <c r="W80">
-        <v>50</v>
-      </c>
-      <c r="X80" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y80">
         <v>9</v>
       </c>
+      <c r="V80" t="s">
+        <v>151</v>
+      </c>
+      <c r="W80" t="s">
+        <v>19</v>
+      </c>
+      <c r="X80">
+        <v>12</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>166</v>
+      </c>
       <c r="Z80" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA80" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB80">
-        <v>12</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>29</v>
       </c>
@@ -14299,41 +13923,32 @@
       <c r="S81">
         <v>1.5</v>
       </c>
-      <c r="T81">
-        <v>7.0000000000000007E-2</v>
+      <c r="T81" t="s">
+        <v>162</v>
       </c>
       <c r="U81">
-        <v>0.37</v>
-      </c>
-      <c r="W81">
-        <v>50</v>
-      </c>
-      <c r="X81" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y81">
         <v>9</v>
       </c>
+      <c r="V81" t="s">
+        <v>151</v>
+      </c>
+      <c r="W81" t="s">
+        <v>19</v>
+      </c>
+      <c r="X81">
+        <v>12</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>166</v>
+      </c>
       <c r="Z81" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA81" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB81">
-        <v>12</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>29</v>
       </c>
@@ -14391,41 +14006,32 @@
       <c r="S82">
         <v>3.4</v>
       </c>
-      <c r="T82">
-        <v>0.1</v>
+      <c r="T82" t="s">
+        <v>162</v>
       </c>
       <c r="U82">
-        <v>0.35</v>
-      </c>
-      <c r="W82">
-        <v>116</v>
-      </c>
-      <c r="X82" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y82">
         <v>44</v>
       </c>
+      <c r="V82" t="s">
+        <v>151</v>
+      </c>
+      <c r="W82" t="s">
+        <v>19</v>
+      </c>
+      <c r="X82">
+        <v>11</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>166</v>
+      </c>
       <c r="Z82" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA82" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB82">
-        <v>11</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>29</v>
       </c>
@@ -14483,41 +14089,32 @@
       <c r="S83">
         <v>3.4</v>
       </c>
-      <c r="T83">
-        <v>0.1</v>
+      <c r="T83" t="s">
+        <v>162</v>
       </c>
       <c r="U83">
-        <v>0.35</v>
-      </c>
-      <c r="W83">
-        <v>116</v>
-      </c>
-      <c r="X83" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y83">
         <v>44</v>
       </c>
+      <c r="V83" t="s">
+        <v>151</v>
+      </c>
+      <c r="W83" t="s">
+        <v>19</v>
+      </c>
+      <c r="X83">
+        <v>11</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>166</v>
+      </c>
       <c r="Z83" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AA83" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB83">
-        <v>11</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>30</v>
       </c>
@@ -14569,38 +14166,32 @@
       <c r="S84">
         <v>5.23</v>
       </c>
-      <c r="T84">
-        <v>0.76</v>
+      <c r="T84" t="s">
+        <v>162</v>
       </c>
       <c r="U84">
-        <v>0.19</v>
-      </c>
-      <c r="X84" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y84">
         <v>26.87</v>
       </c>
+      <c r="V84" t="s">
+        <v>117</v>
+      </c>
+      <c r="W84" t="s">
+        <v>6</v>
+      </c>
+      <c r="X84">
+        <v>4</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>163</v>
+      </c>
       <c r="Z84" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="AA84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB84">
-        <v>4</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>31</v>
       </c>
@@ -14658,35 +14249,32 @@
       <c r="S85">
         <v>12</v>
       </c>
-      <c r="V85">
-        <v>7</v>
-      </c>
-      <c r="X85" t="s">
+      <c r="T85" t="s">
         <v>150</v>
       </c>
+      <c r="U85" t="s">
+        <v>158</v>
+      </c>
+      <c r="V85" t="s">
+        <v>117</v>
+      </c>
+      <c r="W85" t="s">
+        <v>6</v>
+      </c>
+      <c r="X85">
+        <v>5</v>
+      </c>
       <c r="Y85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z85" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB85">
-        <v>5</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>32</v>
       </c>
@@ -14735,29 +14323,29 @@
       <c r="Q86">
         <v>51.950223999999999</v>
       </c>
-      <c r="X86" t="s">
+      <c r="T86" t="s">
         <v>162</v>
       </c>
+      <c r="V86" t="s">
+        <v>117</v>
+      </c>
+      <c r="W86" t="s">
+        <v>6</v>
+      </c>
+      <c r="X86">
+        <v>2</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>118</v>
+      </c>
       <c r="Z86" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AA86" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB86">
-        <v>2</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>33</v>
       </c>
@@ -14815,35 +14403,32 @@
       <c r="S87">
         <v>4.5</v>
       </c>
-      <c r="V87">
-        <v>7</v>
-      </c>
-      <c r="X87" t="s">
+      <c r="T87" t="s">
         <v>150</v>
       </c>
-      <c r="Y87">
+      <c r="U87">
         <v>48</v>
       </c>
+      <c r="V87" t="s">
+        <v>159</v>
+      </c>
+      <c r="W87" t="s">
+        <v>2</v>
+      </c>
+      <c r="X87">
+        <v>4</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>118</v>
+      </c>
       <c r="Z87" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="AA87" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB87">
-        <v>4</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>33</v>
       </c>
@@ -14869,7 +14454,7 @@
         <v>28</v>
       </c>
       <c r="I88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J88" t="s">
         <v>103</v>
@@ -14901,35 +14486,32 @@
       <c r="S88">
         <v>4.5</v>
       </c>
-      <c r="V88">
-        <v>7</v>
-      </c>
-      <c r="X88" t="s">
+      <c r="T88" t="s">
         <v>150</v>
       </c>
-      <c r="Y88">
+      <c r="U88">
         <v>49</v>
       </c>
+      <c r="V88" t="s">
+        <v>159</v>
+      </c>
+      <c r="W88" t="s">
+        <v>2</v>
+      </c>
+      <c r="X88">
+        <v>4</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>118</v>
+      </c>
       <c r="Z88" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="AA88" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB88">
-        <v>4</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>33</v>
       </c>
@@ -14955,7 +14537,7 @@
         <v>28</v>
       </c>
       <c r="I89" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J89" t="s">
         <v>170</v>
@@ -14987,35 +14569,32 @@
       <c r="S89">
         <v>4.5</v>
       </c>
-      <c r="V89">
-        <v>7</v>
-      </c>
-      <c r="X89" t="s">
+      <c r="T89" t="s">
         <v>150</v>
       </c>
-      <c r="Y89">
+      <c r="U89">
         <v>49</v>
       </c>
+      <c r="V89" t="s">
+        <v>159</v>
+      </c>
+      <c r="W89" t="s">
+        <v>2</v>
+      </c>
+      <c r="X89">
+        <v>4</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>118</v>
+      </c>
       <c r="Z89" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="AA89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB89">
-        <v>4</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>34</v>
       </c>
@@ -15076,41 +14655,29 @@
       <c r="T90" t="s">
         <v>158</v>
       </c>
-      <c r="U90" t="s">
-        <v>158</v>
+      <c r="U90">
+        <v>130.62</v>
       </c>
       <c r="V90" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="W90" t="s">
-        <v>158</v>
-      </c>
-      <c r="X90" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y90">
-        <v>130.62</v>
+        <v>19</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>166</v>
       </c>
       <c r="Z90" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AA90" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB90">
-        <v>1</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>35</v>
       </c>
@@ -15162,35 +14729,32 @@
       <c r="Q91">
         <v>55.537112999999998</v>
       </c>
-      <c r="W91">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="X91" t="s">
+      <c r="T91" t="s">
         <v>150</v>
       </c>
-      <c r="Y91">
+      <c r="U91">
         <v>89</v>
       </c>
+      <c r="V91" t="s">
+        <v>151</v>
+      </c>
+      <c r="W91" t="s">
+        <v>6</v>
+      </c>
+      <c r="X91">
+        <v>9</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Z91" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AA91" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB91">
-        <v>9</v>
-      </c>
-      <c r="AC91" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>35</v>
       </c>
@@ -15216,7 +14780,7 @@
         <v>28</v>
       </c>
       <c r="I92" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J92" t="s">
         <v>116</v>
@@ -15242,35 +14806,32 @@
       <c r="Q92">
         <v>55.537112999999998</v>
       </c>
-      <c r="W92">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="X92" t="s">
+      <c r="T92" t="s">
         <v>150</v>
       </c>
-      <c r="Y92">
+      <c r="U92">
         <v>89</v>
       </c>
+      <c r="V92" t="s">
+        <v>151</v>
+      </c>
+      <c r="W92" t="s">
+        <v>6</v>
+      </c>
+      <c r="X92">
+        <v>9</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Z92" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AA92" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB92">
-        <v>9</v>
-      </c>
-      <c r="AC92" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>36</v>
       </c>
@@ -15322,35 +14883,32 @@
       <c r="Q93">
         <v>54.777580999999998</v>
       </c>
-      <c r="W93">
-        <v>12</v>
-      </c>
-      <c r="X93" t="s">
+      <c r="T93" t="s">
         <v>150</v>
       </c>
-      <c r="Y93">
+      <c r="U93">
         <v>52.89</v>
       </c>
+      <c r="V93" t="s">
+        <v>151</v>
+      </c>
+      <c r="W93" t="s">
+        <v>2</v>
+      </c>
+      <c r="X93">
+        <v>6</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>152</v>
+      </c>
       <c r="Z93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA93" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB93">
-        <v>6</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>36</v>
       </c>
@@ -15376,7 +14934,7 @@
         <v>28</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J94" t="s">
         <v>116</v>
@@ -15402,35 +14960,32 @@
       <c r="Q94">
         <v>54.777580999999998</v>
       </c>
-      <c r="W94">
-        <v>12</v>
-      </c>
-      <c r="X94" t="s">
+      <c r="T94" t="s">
         <v>150</v>
       </c>
-      <c r="Y94">
+      <c r="U94">
         <v>52.89</v>
       </c>
+      <c r="V94" t="s">
+        <v>151</v>
+      </c>
+      <c r="W94" t="s">
+        <v>2</v>
+      </c>
+      <c r="X94">
+        <v>6</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>152</v>
+      </c>
       <c r="Z94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA94" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB94">
-        <v>6</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>37</v>
       </c>
@@ -15479,29 +15034,29 @@
       <c r="Q95">
         <v>65.518212000000005</v>
       </c>
+      <c r="T95" t="s">
+        <v>150</v>
+      </c>
+      <c r="V95" t="s">
+        <v>117</v>
+      </c>
+      <c r="W95" t="s">
+        <v>19</v>
+      </c>
       <c r="X95" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>156</v>
       </c>
       <c r="Z95" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA95" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>37</v>
       </c>
@@ -15524,7 +15079,7 @@
         <v>28</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J96" t="s">
         <v>125</v>
@@ -15550,29 +15105,29 @@
       <c r="Q96">
         <v>65.518212000000005</v>
       </c>
+      <c r="T96" t="s">
+        <v>150</v>
+      </c>
+      <c r="V96" t="s">
+        <v>117</v>
+      </c>
+      <c r="W96" t="s">
+        <v>19</v>
+      </c>
       <c r="X96" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>156</v>
       </c>
       <c r="Z96" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA96" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>37</v>
       </c>
@@ -15595,7 +15150,7 @@
         <v>28</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J97" t="s">
         <v>124</v>
@@ -15621,29 +15176,29 @@
       <c r="Q97">
         <v>65.518212000000005</v>
       </c>
+      <c r="T97" t="s">
+        <v>150</v>
+      </c>
+      <c r="V97" t="s">
+        <v>117</v>
+      </c>
+      <c r="W97" t="s">
+        <v>19</v>
+      </c>
       <c r="X97" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>156</v>
       </c>
       <c r="Z97" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AA97" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD97" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>38</v>
       </c>
@@ -15689,32 +15244,32 @@
       <c r="Q98">
         <v>68.643010000000004</v>
       </c>
-      <c r="X98" t="s">
+      <c r="T98" t="s">
         <v>150</v>
       </c>
-      <c r="Y98">
+      <c r="U98">
         <v>539</v>
       </c>
+      <c r="V98" t="s">
+        <v>117</v>
+      </c>
+      <c r="W98" t="s">
+        <v>2</v>
+      </c>
+      <c r="X98">
+        <v>11</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>163</v>
+      </c>
       <c r="Z98" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="AA98" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB98">
-        <v>11</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>39</v>
       </c>
@@ -15766,32 +15321,29 @@
       <c r="S99">
         <v>4.8499999999999996</v>
       </c>
-      <c r="V99">
-        <v>5.33</v>
-      </c>
-      <c r="X99" t="s">
+      <c r="T99" t="s">
         <v>150</v>
       </c>
+      <c r="V99" t="s">
+        <v>117</v>
+      </c>
+      <c r="W99" t="s">
+        <v>19</v>
+      </c>
+      <c r="X99">
+        <v>2</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>13</v>
+      </c>
       <c r="Z99" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="AA99" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB99">
-        <v>2</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>40</v>
       </c>
@@ -15814,7 +15366,7 @@
         <v>25</v>
       </c>
       <c r="I100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
@@ -15846,32 +15398,32 @@
       <c r="S100">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X100" t="s">
+      <c r="T100" t="s">
         <v>162</v>
       </c>
+      <c r="U100" t="s">
+        <v>158</v>
+      </c>
+      <c r="V100" t="s">
+        <v>117</v>
+      </c>
+      <c r="W100" t="s">
+        <v>2</v>
+      </c>
+      <c r="X100">
+        <v>11</v>
+      </c>
       <c r="Y100" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="Z100" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="AA100" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB100">
-        <v>11</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>41</v>
       </c>
@@ -15920,32 +15472,32 @@
       <c r="Q101">
         <v>56.242859000000003</v>
       </c>
-      <c r="X101" t="s">
+      <c r="T101" t="s">
         <v>150</v>
       </c>
-      <c r="Y101">
+      <c r="U101">
         <v>3369</v>
       </c>
+      <c r="V101" t="s">
+        <v>117</v>
+      </c>
+      <c r="W101" t="s">
+        <v>2</v>
+      </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>13</v>
+      </c>
       <c r="Z101" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="AA101" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB101">
-        <v>3</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>41</v>
       </c>
@@ -15994,32 +15546,32 @@
       <c r="Q102">
         <v>56.242859000000003</v>
       </c>
-      <c r="X102" t="s">
+      <c r="T102" t="s">
         <v>150</v>
       </c>
-      <c r="Y102">
+      <c r="U102">
         <v>3369</v>
       </c>
+      <c r="V102" t="s">
+        <v>117</v>
+      </c>
+      <c r="W102" t="s">
+        <v>2</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>13</v>
+      </c>
       <c r="Z102" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="AA102" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB102">
-        <v>3</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>41</v>
       </c>
@@ -16042,7 +15594,7 @@
         <v>25</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J103" t="s">
         <v>43</v>
@@ -16068,32 +15620,32 @@
       <c r="Q103">
         <v>56.242859000000003</v>
       </c>
-      <c r="X103" t="s">
+      <c r="T103" t="s">
         <v>150</v>
       </c>
-      <c r="Y103">
+      <c r="U103">
         <v>3369</v>
       </c>
+      <c r="V103" t="s">
+        <v>117</v>
+      </c>
+      <c r="W103" t="s">
+        <v>2</v>
+      </c>
+      <c r="X103">
+        <v>3</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>13</v>
+      </c>
       <c r="Z103" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="AA103" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB103">
-        <v>3</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>41</v>
       </c>
@@ -16116,7 +15668,7 @@
         <v>25</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J104" t="s">
         <v>43</v>
@@ -16142,33 +15694,33 @@
       <c r="Q104">
         <v>56.242859000000003</v>
       </c>
-      <c r="X104" t="s">
+      <c r="T104" t="s">
         <v>150</v>
       </c>
-      <c r="Y104">
+      <c r="U104">
         <v>3369</v>
       </c>
+      <c r="V104" t="s">
+        <v>117</v>
+      </c>
+      <c r="W104" t="s">
+        <v>2</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>13</v>
+      </c>
       <c r="Z104" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="AA104" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB104">
-        <v>3</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE104">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA104">
     <sortCondition ref="A2:A104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
